--- a/Papers/Economic Calculations.xlsx
+++ b/Papers/Economic Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Значение</t>
   </si>
@@ -27,21 +27,12 @@
     <t>Показатель</t>
   </si>
   <si>
-    <t>Часов в неделе</t>
-  </si>
-  <si>
     <t>Тарифная ставка 1 разряда, руб</t>
   </si>
   <si>
     <t>K, коэффициент премирования</t>
   </si>
   <si>
-    <t>Ф1, Фонд и-п, ч</t>
-  </si>
-  <si>
-    <t>Ф2, Фонд р п, ч</t>
-  </si>
-  <si>
     <t>Kt1 Коэффициент и-п</t>
   </si>
   <si>
@@ -51,9 +42,6 @@
     <t>Месячная тарифная ставка, руб.</t>
   </si>
   <si>
-    <t>Часовая тарифная ставка, руб.</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -178,6 +166,24 @@
   </si>
   <si>
     <t>ЧПср среднегодовая чп</t>
+  </si>
+  <si>
+    <t>Рабочих дней в месяце</t>
+  </si>
+  <si>
+    <t>Дневная тарифная ставка, руб.</t>
+  </si>
+  <si>
+    <t>Ф1, Фонд и-п, дн</t>
+  </si>
+  <si>
+    <t>Ф2, Фонд р п, дн</t>
+  </si>
+  <si>
+    <t>Нн</t>
+  </si>
+  <si>
+    <t>Зн</t>
   </si>
 </sst>
 </file>
@@ -258,12 +264,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -644,31 +650,32 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <f>22</f>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -676,7 +683,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -684,7 +691,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2.48</v>
@@ -692,7 +699,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3.25</v>
@@ -700,38 +707,38 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.34599999999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -742,20 +749,20 @@
       </c>
       <c r="E12">
         <f>D12/$B$3</f>
-        <v>1.7714285714285716</v>
+        <v>13.527272727272729</v>
       </c>
       <c r="F12">
         <f>E12*B4</f>
-        <v>708.57142857142867</v>
+        <v>676.36363636363649</v>
       </c>
       <c r="I12">
         <f>E12*B4*$B$7</f>
-        <v>921.14285714285734</v>
+        <v>879.27272727272748</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1.2</v>
@@ -769,69 +776,69 @@
       </c>
       <c r="E13">
         <f>D13/$B$3</f>
-        <v>2.3214285714285716</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="F13">
         <f>E13*B5</f>
-        <v>116.07142857142858</v>
+        <v>443.18181818181819</v>
       </c>
       <c r="I13">
         <f>E13*B5*$B$7</f>
-        <v>150.89285714285717</v>
+        <v>576.13636363636363</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0.05</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <f>SUM(F12:F13)</f>
-        <v>824.64285714285722</v>
+        <v>1119.5454545454547</v>
       </c>
       <c r="I14">
         <f>I12+I13</f>
-        <v>1072.0357142857144</v>
+        <v>1455.409090909091</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <f>F14*($B$7-1)</f>
-        <v>247.3928571428572</v>
+        <v>335.86363636363649</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <f>SUM(F14:F15)</f>
-        <v>1072.0357142857144</v>
+        <v>1455.4090909090912</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -839,151 +846,164 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0.2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <f>$F$16*B10</f>
-        <v>160.80535714285716</v>
+        <v>145.54090909090914</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <f>($F$16+D18)*$B$11</f>
-        <v>426.56301071428578</v>
+        <v>553.92870000000005</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <f>($B$4+$B$5)*$B$13</f>
-        <v>540</v>
+        <f>($B$4+$B$5)*$B$13*8</f>
+        <v>720</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <f>$F$16*$B$12</f>
-        <v>171.52571428571432</v>
+        <v>145.54090909090914</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <f>$F$16*$F$20</f>
+        <v>727.70454545454561</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <f>SUM($D$18:$D$21)+$F$16</f>
-        <v>2370.9297964285715</v>
+        <f>SUM($D$18:$D$21)+$F$16+$F$21</f>
+        <v>3748.124154545455</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <f>D22*$B$14</f>
-        <v>118.54648982142858</v>
+        <v>187.40620772727277</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
         <f>D22+D23</f>
-        <v>2489.4762862500002</v>
+        <v>3935.5303622727279</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <f>D24*$B$15</f>
-        <v>497.89525725000004</v>
+        <v>590.32955434090911</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3">
         <f>$D$24+$D$25</f>
-        <v>2987.3715435000004</v>
+        <v>4525.8599166136373</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <f>$B$17-D26/B19</f>
-        <v>30.084189709999997</v>
+        <f>$B$17-$D$26/SUM(C33:C36)</f>
+        <v>31.896560333545452</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>D28*90</f>
-        <v>2707.5770738999995</v>
+        <v>2870.6904300190909</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
         <v>43</v>
       </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>47</v>
-      </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <f>D26*(1+$B$16)</f>
-        <v>3286.1086978500007</v>
+        <v>4978.4459082750018</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -997,15 +1017,15 @@
       </c>
       <c r="H31">
         <f>D33*F31</f>
-        <v>902.52569129999995</v>
+        <v>1913.7936200127272</v>
       </c>
       <c r="I31">
-        <f>(D33-D26)*F31</f>
-        <v>-2084.8458522000005</v>
+        <f>(D33-D24)*F31</f>
+        <v>-2021.7367422600007</v>
       </c>
       <c r="J31">
         <f>I31</f>
-        <v>-2084.8458522000005</v>
+        <v>-2021.7367422600007</v>
       </c>
       <c r="K31">
         <f>(M31-N31)*G31</f>
@@ -1015,16 +1035,16 @@
         <f>SUM(K31:K31)</f>
         <v>-3548.49</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>1040</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>4588.49</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1038,15 +1058,15 @@
       </c>
       <c r="H32">
         <f t="shared" ref="H32:H34" si="1">D34*F32</f>
-        <v>1319.482004824561</v>
+        <v>1958.5607222352467</v>
       </c>
       <c r="I32">
         <f>(D34)*F32</f>
-        <v>1319.482004824561</v>
+        <v>1958.5607222352467</v>
       </c>
       <c r="J32">
         <f>SUM(I31:I32)</f>
-        <v>-765.36384737543949</v>
+        <v>-63.176020024754052</v>
       </c>
       <c r="K32">
         <f>(M32)*G32</f>
@@ -1056,24 +1076,24 @@
         <f>SUM(K31:K32)</f>
         <v>-1738.8899999999999</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>2080</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2017</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <f>$D$28*C33</f>
-        <v>902.52569129999995</v>
+        <v>1913.7936200127272</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1087,15 +1107,15 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>925.95228408741127</v>
+        <v>1718.0357212589881</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:I34" si="2">(D35)*F33</f>
-        <v>925.95228408741127</v>
+        <v>1718.0357212589881</v>
       </c>
       <c r="J33">
         <f>SUM(I31:I33)</f>
-        <v>160.58843671197178</v>
+        <v>1654.8597012342341</v>
       </c>
       <c r="K33">
         <f>(M33)*G33</f>
@@ -1105,24 +1125,24 @@
         <f>SUM(K31:K33)</f>
         <v>632.30999999999995</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>3120</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2018</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D36" si="3">$D$28*C34</f>
-        <v>1504.2094854999998</v>
+        <v>2232.7592233481814</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1136,15 +1156,15 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>609.17913426803375</v>
+        <v>1076.4634844981131</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>609.17913426803375</v>
+        <v>1076.4634844981131</v>
       </c>
       <c r="J34">
         <f>SUM(I31:I34)</f>
-        <v>769.76757098000553</v>
+        <v>2731.3231857323472</v>
       </c>
       <c r="K34">
         <f>(M34)*G34</f>
@@ -1154,24 +1174,24 @@
         <f>SUM(K31:K34)</f>
         <v>3419.51</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>4160</v>
       </c>
-      <c r="N34" s="5"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>1203.3675883999999</v>
+        <v>2232.7592233481814</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,32 +1199,32 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>902.52569129999995</v>
+        <v>1594.8280166772727</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <f>SUM(D33:D36)/4</f>
-        <v>1128.1571141249999</v>
+        <v>1993.5350208465907</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G38">
-        <f>G37/$D$26*100</f>
-        <v>37.764205010912455</v>
+        <f>G37/D24*100</f>
+        <v>50.654799667085918</v>
       </c>
     </row>
   </sheetData>
